--- a/gu_in/Character.edf/Grade.xlsx
+++ b/gu_in/Character.edf/Grade.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883E228-28DA-4BF6-AE72-186420B269A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="75" windowWidth="24330" windowHeight="14760"/>
+    <workbookView xWindow="1650" yWindow="285" windowWidth="24930" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cligrade" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +82,7 @@
     <t>4Knot</t>
   </si>
   <si>
-    <t>Centrurio</t>
+    <t>Centurio</t>
   </si>
   <si>
     <t>Caters</t>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,17 +134,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,10 +163,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,12 +443,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,56 +461,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
@@ -526,15 +523,16 @@
       <c r="F3" s="1">
         <v>17</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1">
@@ -546,15 +544,16 @@
       <c r="F4" s="1">
         <v>18</v>
       </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1">
@@ -566,15 +565,16 @@
       <c r="F5" s="1">
         <v>19</v>
       </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1">
@@ -586,15 +586,16 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1">
@@ -606,15 +607,16 @@
       <c r="F7" s="1">
         <v>21</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1">
@@ -626,15 +628,16 @@
       <c r="F8" s="1">
         <v>22</v>
       </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1">
@@ -646,15 +649,16 @@
       <c r="F9" s="1">
         <v>23</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1">
@@ -666,6 +670,7 @@
       <c r="F10" s="1">
         <v>24</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gu_in/Character.edf/Grade.xlsx
+++ b/gu_in/Character.edf/Grade.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883E228-28DA-4BF6-AE72-186420B269A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="285" windowWidth="24930" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="75" windowWidth="24330" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="cligrade" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +81,7 @@
     <t>4Knot</t>
   </si>
   <si>
-    <t>Centurio</t>
+    <t>Centrurio</t>
   </si>
   <si>
     <t>Caters</t>
@@ -124,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,12 +133,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -163,10 +167,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,12 +447,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,57 +465,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
@@ -523,16 +526,15 @@
       <c r="F3" s="1">
         <v>17</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1">
@@ -544,16 +546,15 @@
       <c r="F4" s="1">
         <v>18</v>
       </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1">
@@ -565,16 +566,15 @@
       <c r="F5" s="1">
         <v>19</v>
       </c>
-      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1">
@@ -586,16 +586,15 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1">
@@ -607,16 +606,15 @@
       <c r="F7" s="1">
         <v>21</v>
       </c>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1">
@@ -628,16 +626,15 @@
       <c r="F8" s="1">
         <v>22</v>
       </c>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1">
@@ -649,16 +646,15 @@
       <c r="F9" s="1">
         <v>23</v>
       </c>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1">
@@ -670,7 +666,6 @@
       <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
